--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\MarsQA_2\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272ECE-833C-43AE-9AC5-5DC008F12B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522312A9-4D2B-4DAE-92BD-16966D3CE63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -144,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,16 +544,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -603,14 +603,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -647,24 +647,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="8" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -715,7 +715,7 @@
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
